--- a/Supplemental_tables/Table_S2.xlsx
+++ b/Supplemental_tables/Table_S2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/embree_14_buckeyemail_osu_edu/Documents/Splicing and NMD/Figures/Paper Figures/Supplemental_Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/embree_14_buckeyemail_osu_edu/Documents/Splicing and NMD/Final_Manuscript/Supplemental_Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35D59E0-BA55-47B8-8880-1021A7E8CC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{D35D59E0-BA55-47B8-8880-1021A7E8CC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358AEE3D-1F83-472D-BDCC-55B9C66AE1CA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2BC7A85-22B3-4BDA-B8A3-61BFE26E27D1}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{B2BC7A85-22B3-4BDA-B8A3-61BFE26E27D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="397">
   <si>
     <t>GO biological process analysisis of STRING enrichment</t>
   </si>
@@ -49,10 +49,16 @@
     <t>Redundent terms were removed with a redundant cutoff of 0.75</t>
   </si>
   <si>
-    <t>all_top200 is the analysis conducted on all proteins in the top 200 hits of any of the four screens for NMD factors</t>
-  </si>
-  <si>
-    <t>2_of_4_top200 is the analysis conducted on all proteins in the top 200 hits of two or more of the four screens for NMD factors</t>
+    <t xml:space="preserve">all_top200 is the analysis conducted on all proteins in the top </t>
+  </si>
+  <si>
+    <t>200 hits of any of the four screens for NMD factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2_of_4_top200 is the analysis conducted on all proteins in the top </t>
+  </si>
+  <si>
+    <t>200 hits of two or more of the four screens for NMD factors</t>
   </si>
   <si>
     <t># background genes</t>
@@ -1229,13 +1235,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1258,9 +1270,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1595,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E02F2B-0CEB-494E-B8D3-79E284FFE412}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1624,12 +1637,23 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1642,34 +1666,45 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1680,22 +1715,22 @@
         <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>6.5899999999999999E-58</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1">
         <v>4.2100000000000001E-62</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>5.7181114585405997</v>
@@ -1709,22 +1744,22 @@
         <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>1.24E-51</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>1.59E-55</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>5.09065783148377</v>
@@ -1738,22 +1773,22 @@
         <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>1.95E-45</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1">
         <v>7.45E-49</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>4.4709965388637398</v>
@@ -1767,22 +1802,22 @@
         <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
         <v>4.4299999999999999E-41</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1">
         <v>2.5399999999999999E-44</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I5">
         <v>4.0353596273776899</v>
@@ -1796,22 +1831,22 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
         <v>5.0900000000000001E-38</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>3.7500000000000002E-41</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I6">
         <v>3.7293282217663202</v>
@@ -1825,22 +1860,22 @@
         <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
         <v>2.7299999999999999E-35</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1">
         <v>2.6099999999999998E-38</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>3.4563837352959199</v>
@@ -1854,22 +1889,22 @@
         <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1">
         <v>4.7700000000000001E-33</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
         <v>6.3899999999999994E-36</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <v>3.2321481620959802</v>
@@ -1883,22 +1918,22 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1">
         <v>2.45E-26</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1">
         <v>3.5999999999999997E-29</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>2.5610833915635398</v>
@@ -1912,22 +1947,22 @@
         <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1">
         <v>8.8300000000000005E-23</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1">
         <v>1.4099999999999999E-25</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I10">
         <v>2.2054039296422401</v>
@@ -1941,22 +1976,22 @@
         <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1">
         <v>2.49E-21</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1">
         <v>4.29E-24</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>2.0603800652904201</v>
@@ -1970,22 +2005,22 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1">
         <v>1.41E-17</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1">
         <v>2.51E-20</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I12">
         <v>1.6850780887344601</v>
@@ -1999,22 +2034,22 @@
         <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
         <v>1.6600000000000001E-16</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1">
         <v>3.06E-19</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I13">
         <v>1.57798919119599</v>
@@ -2028,22 +2063,22 @@
         <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1">
         <v>5.8699999999999997E-16</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1">
         <v>1.2E-18</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I14">
         <v>1.52313618987523</v>
@@ -2057,22 +2092,22 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1">
         <v>6.3900000000000003E-16</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1">
         <v>1.3499999999999999E-18</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I15">
         <v>1.51944991418416</v>
@@ -2086,22 +2121,22 @@
         <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1">
         <v>6.1000000000000005E-14</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1">
         <v>1.44E-16</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I16">
         <v>1.32146701649892</v>
@@ -2115,22 +2150,22 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1">
         <v>6.9599999999999996E-13</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G17" s="1">
         <v>1.7299999999999999E-15</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I17">
         <v>1.2157390760389399</v>
@@ -2144,22 +2179,22 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1">
         <v>2.4899999999999999E-11</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G18" s="1">
         <v>6.3499999999999994E-14</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I18">
         <v>1.0603800652904201</v>
@@ -2173,22 +2208,22 @@
         <v>584</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1">
         <v>2.6099999999999999E-11</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1">
         <v>6.8200000000000002E-14</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I19">
         <v>1.0583359492661699</v>
@@ -2202,22 +2237,22 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" s="1">
         <v>1.5199999999999999E-10</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G20" s="1">
         <v>4.1699999999999999E-13</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I20">
         <v>0.98181564120552201</v>
@@ -2231,22 +2266,22 @@
         <v>281</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1">
         <v>1.5199999999999999E-10</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G21" s="1">
         <v>4.1799999999999999E-13</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21">
         <v>0.98181564120552201</v>
@@ -2260,22 +2295,22 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1">
         <v>2.1E-10</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1">
         <v>6.0299999999999995E-13</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I22">
         <v>0.96777807052660803</v>
@@ -2289,22 +2324,22 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1">
         <v>3.28E-10</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G23" s="1">
         <v>9.6100000000000005E-13</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I23">
         <v>0.94841261562883195</v>
@@ -2318,22 +2353,22 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E24" s="1">
         <v>4.2299999999999999E-10</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G24" s="1">
         <v>1.27E-12</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I24">
         <v>0.93736596326249499</v>
@@ -2347,22 +2382,22 @@
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1">
         <v>6.1500000000000005E-10</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G25" s="1">
         <v>1.9199999999999999E-12</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I25">
         <v>0.92111248842245796</v>
@@ -2376,22 +2411,22 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1">
         <v>1.55E-9</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G26" s="1">
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I26">
         <v>0.88096683018296995</v>
@@ -2405,22 +2440,22 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E27" s="1">
         <v>6.3600000000000004E-9</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G27" s="1">
         <v>2.19E-11</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I27">
         <v>0.81965428843515797</v>
@@ -2434,22 +2469,22 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1">
         <v>7.1699999999999998E-9</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G28" s="1">
         <v>2.6099999999999999E-11</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I28">
         <v>0.81444808443322003</v>
@@ -2463,22 +2498,22 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1">
         <v>1.5200000000000001E-7</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G29" s="1">
         <v>6.4800000000000004E-10</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I29">
         <v>0.68181564120552196</v>
@@ -2492,22 +2527,22 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E30" s="1">
         <v>4.4200000000000001E-7</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G30" s="1">
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I30">
         <v>0.63545777306508999</v>
@@ -2521,22 +2556,22 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E31" s="1">
         <v>8.2099999999999995E-7</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G31" s="1">
         <v>3.8700000000000001E-9</v>
       </c>
       <c r="H31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I31">
         <v>0.60856568428805502</v>
@@ -2550,22 +2585,22 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1">
         <v>9.5099999999999998E-7</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G32" s="1">
         <v>4.5500000000000002E-9</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I32">
         <v>0.60218194830625804</v>
@@ -2579,22 +2614,22 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E33" s="1">
         <v>9.9699999999999994E-7</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G33" s="1">
         <v>4.8300000000000001E-9</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I33">
         <v>0.60013048416883397</v>
@@ -2608,22 +2643,22 @@
         <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E34" s="1">
         <v>1.66E-6</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G34" s="1">
         <v>8.3799999999999996E-9</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I34">
         <v>0.57798919119599401</v>
@@ -2637,22 +2672,22 @@
         <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E35" s="1">
         <v>3.0699999999999998E-6</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G35" s="1">
         <v>1.5700000000000002E-8</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I35">
         <v>0.55128616245228101</v>
@@ -2666,22 +2701,22 @@
         <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E36" s="1">
         <v>3.6500000000000002E-6</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G36" s="1">
         <v>1.9300000000000001E-8</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I36">
         <v>0.54377071355435203</v>
@@ -2695,22 +2730,22 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E37" s="1">
         <v>4.6199999999999998E-6</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G37" s="1">
         <v>2.51E-8</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I37">
         <v>0.53353580244438703</v>
@@ -2724,22 +2759,22 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E38" s="1">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G38" s="1">
         <v>7.24E-8</v>
       </c>
       <c r="H38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I38">
         <v>0.48860566476931599</v>
@@ -2753,22 +2788,22 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E39" s="1">
         <v>1.3699999999999999E-5</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G39" s="1">
         <v>7.7099999999999996E-8</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I39">
         <v>0.48632794328435902</v>
@@ -2782,22 +2817,22 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E40" s="1">
         <v>1.98E-5</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G40" s="1">
         <v>1.14E-7</v>
       </c>
       <c r="H40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I40">
         <v>0.47033348097384597</v>
@@ -2811,22 +2846,22 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E41" s="1">
         <v>1.98E-5</v>
       </c>
       <c r="F41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G41" s="1">
         <v>1.14E-7</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I41">
         <v>0.47033348097384597</v>
@@ -2840,22 +2875,22 @@
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E42" s="1">
         <v>2.2799999999999999E-5</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G42" s="1">
         <v>1.3400000000000001E-7</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I42">
         <v>0.46420651529995399</v>
@@ -2869,22 +2904,22 @@
         <v>227</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E43" s="1">
         <v>3.4900000000000001E-5</v>
       </c>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G43" s="1">
         <v>2.0900000000000001E-7</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I43">
         <v>0.44571745730408202</v>
@@ -2898,22 +2933,22 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E44" s="1">
         <v>7.7999999999999999E-5</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G44" s="1">
         <v>4.8800000000000003E-7</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I44">
         <v>0.41079053973095098</v>
@@ -2927,22 +2962,22 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E45" s="1">
         <v>8.3100000000000001E-5</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G45" s="1">
         <v>5.3000000000000001E-7</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I45">
         <v>0.40803989762158799</v>
@@ -2956,22 +2991,22 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E46" s="1">
         <v>9.5500000000000004E-5</v>
       </c>
       <c r="F46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G46" s="1">
         <v>6.1500000000000004E-7</v>
       </c>
       <c r="H46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I46">
         <v>0.40199966284162503</v>
@@ -2985,22 +3020,22 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E47" s="1">
         <v>1.1E-4</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G47" s="1">
         <v>7.0699999999999996E-7</v>
       </c>
       <c r="H47" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I47">
         <v>0.395860731484177</v>
@@ -3014,22 +3049,22 @@
         <v>253</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E48" s="1">
         <v>1.1E-4</v>
       </c>
       <c r="F48" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G48" s="1">
         <v>7.2900000000000003E-7</v>
       </c>
       <c r="H48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I48">
         <v>0.395860731484177</v>
@@ -3043,22 +3078,22 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E49" s="1">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="F49" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G49" s="1">
         <v>1.0300000000000001E-6</v>
       </c>
       <c r="H49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I49">
         <v>0.38239087409443101</v>
@@ -3072,22 +3107,22 @@
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E50" s="1">
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="F50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G50" s="1">
         <v>1.2899999999999999E-6</v>
       </c>
       <c r="H50" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I50">
         <v>0.372124639904717</v>
@@ -3101,22 +3136,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E51" s="1">
         <v>3.3E-4</v>
       </c>
       <c r="F51" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G51" s="1">
         <v>2.3599999999999999E-6</v>
       </c>
       <c r="H51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I51">
         <v>0.34814860601221098</v>
@@ -3130,22 +3165,22 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E52" s="1">
         <v>4.2000000000000002E-4</v>
       </c>
       <c r="F52" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G52" s="1">
         <v>2.9900000000000002E-6</v>
       </c>
       <c r="H52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I52">
         <v>0.33767507096020999</v>
@@ -3159,22 +3194,22 @@
         <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E53" s="1">
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="F53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G53" s="1">
         <v>3.2600000000000001E-6</v>
       </c>
       <c r="H53" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I53">
         <v>0.33467874862246499</v>
@@ -3188,22 +3223,22 @@
         <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E54" s="1">
         <v>5.8E-4</v>
       </c>
       <c r="F54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G54" s="1">
         <v>4.2300000000000002E-6</v>
       </c>
       <c r="H54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I54">
         <v>0.32365720064370601</v>
@@ -3217,22 +3252,22 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E55" s="1">
         <v>6.3000000000000003E-4</v>
       </c>
       <c r="F55" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G55" s="1">
         <v>4.6700000000000002E-6</v>
       </c>
       <c r="H55" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I55">
         <v>0.32006594505464098</v>
@@ -3246,22 +3281,22 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E56" s="1">
         <v>7.1000000000000002E-4</v>
       </c>
       <c r="F56" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G56" s="1">
         <v>5.3199999999999999E-6</v>
       </c>
       <c r="H56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I56">
         <v>0.31487416512809202</v>
@@ -3275,22 +3310,22 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E57" s="1">
         <v>7.7999999999999999E-4</v>
       </c>
       <c r="F57" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G57" s="1">
         <v>5.93E-6</v>
       </c>
       <c r="H57" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I57">
         <v>0.310790539730951</v>
@@ -3304,22 +3339,22 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E58" s="1">
         <v>7.7999999999999999E-4</v>
       </c>
       <c r="F58" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G58" s="1">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="H58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I58">
         <v>0.310790539730951</v>
@@ -3333,22 +3368,22 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E59" s="1">
         <v>9.3999999999999997E-4</v>
       </c>
       <c r="F59" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G59" s="1">
         <v>7.2899999999999997E-6</v>
       </c>
       <c r="H59" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I59">
         <v>0.30268721464003001</v>
@@ -3362,22 +3397,22 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E60">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="F60" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G60" s="1">
         <v>8.8999999999999995E-6</v>
       </c>
       <c r="H60" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I60">
         <v>0.29586073148417702</v>
@@ -3391,22 +3426,22 @@
         <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E61">
         <v>1.5E-3</v>
       </c>
       <c r="F61" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G61" s="1">
         <v>1.22E-5</v>
       </c>
       <c r="H61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I61">
         <v>0.28239087409443098</v>
@@ -3420,22 +3455,22 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E62">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="F62" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G62" s="1">
         <v>1.27E-5</v>
       </c>
       <c r="H62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I62">
         <v>0.27958800173440701</v>
@@ -3449,22 +3484,22 @@
         <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E63">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="F63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G63" s="1">
         <v>1.3900000000000001E-5</v>
       </c>
       <c r="H63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I63">
         <v>0.27695510786217198</v>
@@ -3478,22 +3513,22 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E64">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="F64" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G64" s="1">
         <v>1.9199999999999999E-5</v>
       </c>
       <c r="H64" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I64">
         <v>0.26575773191777902</v>
@@ -3507,22 +3542,22 @@
         <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E65">
         <v>2.3E-3</v>
       </c>
       <c r="F65" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G65" s="1">
         <v>2.0100000000000001E-5</v>
       </c>
       <c r="H65" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I65">
         <v>0.26382721639824003</v>
@@ -3536,22 +3571,22 @@
         <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E66">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G66" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="H66" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I66">
         <v>0.26020599913279602</v>
@@ -3565,22 +3600,22 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E67">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="F67" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G67" s="1">
         <v>2.3499999999999999E-5</v>
       </c>
       <c r="H67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I67">
         <v>0.25850266520291798</v>
@@ -3594,22 +3629,22 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E68">
         <v>2.8E-3</v>
       </c>
       <c r="F68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G68" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="H68" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I68">
         <v>0.25528419686577802</v>
@@ -3623,22 +3658,22 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E69">
         <v>2.8E-3</v>
       </c>
       <c r="F69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G69" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="H69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I69">
         <v>0.25528419686577802</v>
@@ -3652,22 +3687,22 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E70">
         <v>2.8E-3</v>
       </c>
       <c r="F70" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G70" s="1">
         <v>2.5400000000000001E-5</v>
       </c>
       <c r="H70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I70">
         <v>0.25528419686577802</v>
@@ -3681,22 +3716,22 @@
         <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E71">
         <v>2.8E-3</v>
       </c>
       <c r="F71" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G71" s="1">
         <v>2.5599999999999999E-5</v>
       </c>
       <c r="H71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I71">
         <v>0.25528419686577802</v>
@@ -3710,22 +3745,22 @@
         <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E72">
         <v>2.8E-3</v>
       </c>
       <c r="F72" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G72" s="1">
         <v>2.6299999999999999E-5</v>
       </c>
       <c r="H72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I72">
         <v>0.25528419686577802</v>
@@ -3739,22 +3774,22 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E73">
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="F73" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G73" s="1">
         <v>3.26E-5</v>
       </c>
       <c r="H73" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I73">
         <v>0.246852108295774</v>
@@ -3768,22 +3803,22 @@
         <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E74">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="F74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G74" s="1">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="H74" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I74">
         <v>0.24317982759330001</v>
@@ -3797,22 +3832,22 @@
         <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E75">
         <v>3.8E-3</v>
       </c>
       <c r="F75" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G75" s="1">
         <v>3.6900000000000002E-5</v>
       </c>
       <c r="H75" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I75">
         <v>0.24202164033831899</v>
@@ -3826,22 +3861,22 @@
         <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E76">
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="F76" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G76" s="1">
         <v>4.1199999999999999E-5</v>
       </c>
       <c r="H76" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I76">
         <v>0.23872161432802599</v>
@@ -3855,22 +3890,22 @@
         <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E77">
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="F77" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G77" s="1">
         <v>4.49E-5</v>
       </c>
       <c r="H77" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I77">
         <v>0.23467874862246499</v>
@@ -3884,22 +3919,22 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E78">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="F78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G78" s="1">
         <v>4.85E-5</v>
       </c>
       <c r="H78" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I78">
         <v>0.23187587626244099</v>
@@ -3913,22 +3948,22 @@
         <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E79">
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="F79" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G79" s="1">
         <v>5.2099999999999999E-5</v>
       </c>
       <c r="H79" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I79">
         <v>0.22924298239020599</v>
@@ -3942,22 +3977,22 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E80">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="F80" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G80" s="1">
         <v>5.38E-5</v>
       </c>
       <c r="H80" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I80">
         <v>0.22839966563652001</v>
@@ -3971,22 +4006,22 @@
         <v>46</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E81">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="F81" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G81" s="1">
         <v>5.3399999999999997E-5</v>
       </c>
       <c r="H81" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I81">
         <v>0.22839966563652001</v>
@@ -4000,22 +4035,22 @@
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E82">
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="F82" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G82" s="1">
         <v>6.41E-5</v>
       </c>
       <c r="H82" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I82">
         <v>0.221467016498923</v>
@@ -4029,22 +4064,22 @@
         <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E83">
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="F83" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G83" s="1">
         <v>6.6000000000000005E-5</v>
       </c>
       <c r="H83" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I83">
         <v>0.22076083105017399</v>
@@ -4058,22 +4093,22 @@
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E84">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="F84" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G84" s="1">
         <v>7.8700000000000002E-5</v>
       </c>
       <c r="H84" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I84">
         <v>0.21366771398795401</v>
@@ -4087,22 +4122,22 @@
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E85">
         <v>1.04E-2</v>
       </c>
       <c r="F85" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G85" s="1">
         <v>1.2E-4</v>
       </c>
       <c r="H85" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I85">
         <v>0.198296666070121</v>
@@ -4116,22 +4151,22 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E86">
         <v>1.09E-2</v>
       </c>
       <c r="F86" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G86" s="1">
         <v>1.2E-4</v>
       </c>
       <c r="H86" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I86">
         <v>0.19625735020593699</v>
@@ -4145,22 +4180,22 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E87">
         <v>1.17E-2</v>
       </c>
       <c r="F87" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G87" s="1">
         <v>1.2999999999999999E-4</v>
       </c>
       <c r="H87" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I87">
         <v>0.19318141382538301</v>
@@ -4174,22 +4209,22 @@
         <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E88">
         <v>1.37E-2</v>
       </c>
       <c r="F88" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G88" s="1">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="H88" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I88">
         <v>0.186327943284359</v>
@@ -4203,22 +4238,22 @@
         <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E89">
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="F89" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G89" s="1">
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H89" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I89">
         <v>0.18153085691824</v>
@@ -4232,22 +4267,22 @@
         <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E90">
         <v>1.61E-2</v>
       </c>
       <c r="F90" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G90" s="1">
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="H90" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I90">
         <v>0.17931741239681501</v>
@@ -4261,22 +4296,22 @@
         <v>81</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E91">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="F91" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G91" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H91" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I91">
         <v>0.17746907182741301</v>
@@ -4290,22 +4325,22 @@
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E92">
         <v>1.9300000000000001E-2</v>
       </c>
       <c r="F92" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G92" s="1">
         <v>2.3000000000000001E-4</v>
       </c>
       <c r="H92" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I92">
         <v>0.171444269099222</v>
@@ -4319,22 +4354,22 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E93">
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="F93" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G93" s="1">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H93" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I93">
         <v>0.16798537138889399</v>
@@ -4348,22 +4383,22 @@
         <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E94">
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="F94" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G94" s="1">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H94" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I94">
         <v>0.16757175447023001</v>
@@ -4377,22 +4412,22 @@
         <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E95">
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="F95" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G95" s="1">
         <v>2.7999999999999998E-4</v>
       </c>
       <c r="H95" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I95">
         <v>0.16326440789739799</v>
@@ -4406,22 +4441,22 @@
         <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E96">
         <v>2.4299999999999999E-2</v>
       </c>
       <c r="F96" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G96" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H96" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I96">
         <v>0.161439372640168</v>
@@ -4435,22 +4470,22 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E97">
         <v>2.46E-2</v>
       </c>
       <c r="F97" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G97" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H97" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I97">
         <v>0.160906489289662</v>
@@ -4464,22 +4499,22 @@
         <v>127</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E98">
         <v>2.6200000000000001E-2</v>
       </c>
       <c r="F98" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G98" s="1">
         <v>3.3E-4</v>
       </c>
       <c r="H98" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I98">
         <v>0.158169870868025</v>
@@ -4493,22 +4528,22 @@
         <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E99">
         <v>2.63E-2</v>
       </c>
       <c r="F99" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G99" s="1">
         <v>3.3E-4</v>
       </c>
       <c r="H99" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I99">
         <v>0.158004425151024</v>
@@ -4522,22 +4557,22 @@
         <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E100">
         <v>2.6499999999999999E-2</v>
       </c>
       <c r="F100" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G100" s="1">
         <v>3.3E-4</v>
       </c>
       <c r="H100" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I100">
         <v>0.15767541260631901</v>
@@ -4551,22 +4586,22 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E101">
         <v>2.7400000000000001E-2</v>
       </c>
       <c r="F101" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G101" s="1">
         <v>3.5E-4</v>
       </c>
       <c r="H101" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I101">
         <v>0.156224943717961</v>
@@ -4580,22 +4615,22 @@
         <v>132</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E102">
         <v>2.86E-2</v>
       </c>
       <c r="F102" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G102" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
       <c r="H102" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I102">
         <v>0.15436339668709501</v>
@@ -4609,22 +4644,22 @@
         <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E103">
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="F103" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G103" s="1">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="H103" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I103">
         <v>0.15030703519267799</v>
@@ -4638,22 +4673,22 @@
         <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E104">
         <v>3.2399999999999998E-2</v>
       </c>
       <c r="F104" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G104" s="1">
         <v>4.2000000000000002E-4</v>
       </c>
       <c r="H104" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I104">
         <v>0.14894549897933801</v>
@@ -4667,22 +4702,22 @@
         <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E105">
         <v>3.5700000000000003E-2</v>
       </c>
       <c r="F105" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G105" s="1">
         <v>4.6999999999999999E-4</v>
       </c>
       <c r="H105" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I105">
         <v>0.14473317838878</v>
@@ -4696,22 +4731,22 @@
         <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E106">
         <v>3.6600000000000001E-2</v>
       </c>
       <c r="F106" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G106" s="1">
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="H106" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I106">
         <v>0.14365189146055801</v>
@@ -4725,22 +4760,22 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E107">
         <v>4.0899999999999999E-2</v>
       </c>
       <c r="F107" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G107" s="1">
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="H107" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I107">
         <v>0.13882766919926501</v>
@@ -4754,22 +4789,22 @@
         <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E108">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="F108" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G108" s="1">
         <v>6.2E-4</v>
       </c>
       <c r="H108" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I108">
         <v>0.13372421683184199</v>
@@ -4783,22 +4818,22 @@
         <v>65</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E109">
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="F109" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G109" s="1">
         <v>6.4000000000000005E-4</v>
       </c>
       <c r="H109" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I109">
         <v>0.13269790928711001</v>
@@ -4812,22 +4847,22 @@
         <v>26</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E110">
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="F110" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G110" s="1">
         <v>6.4000000000000005E-4</v>
       </c>
       <c r="H110" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I110">
         <v>0.13269790928711001</v>
@@ -4841,22 +4876,22 @@
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E111">
         <v>4.82E-2</v>
       </c>
       <c r="F111" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G111" s="1">
         <v>6.6E-4</v>
       </c>
       <c r="H111" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I111">
         <v>0.131695296176115</v>
@@ -4870,69 +4905,83 @@
         <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E112">
         <v>4.9099999999999998E-2</v>
       </c>
       <c r="F112" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G112" s="1">
         <v>6.8000000000000005E-4</v>
       </c>
       <c r="H112" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I112">
         <v>0.13089185078770299</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDA980F-F3E7-4DE2-8E99-9470BCF81CE1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4943,22 +4992,22 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>5.9800000000000004E-39</v>
       </c>
       <c r="F2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G2" s="1">
         <v>3.8100000000000002E-43</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>3.8223298816011502</v>
@@ -4972,22 +5021,22 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E3" s="1">
         <v>3.6400000000000003E-33</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G3" s="1">
         <v>4.6399999999999999E-37</v>
       </c>
       <c r="H3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I3">
         <v>3.2438898616350902</v>
@@ -5001,22 +5050,22 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E4" s="1">
         <v>8.6799999999999995E-26</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G4" s="1">
         <v>4.9799999999999999E-29</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I4">
         <v>2.5061480274823502</v>
@@ -5030,22 +5079,22 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1">
         <v>5.8199999999999997E-22</v>
       </c>
       <c r="F5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G5" s="1">
         <v>4.4500000000000003E-25</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>2.1235077015350101</v>
@@ -5059,22 +5108,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1">
         <v>5.81E-14</v>
       </c>
       <c r="F6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G6" s="1">
         <v>9.2699999999999995E-17</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6">
         <v>1.32358238676096</v>
@@ -5088,22 +5137,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1">
         <v>1.1200000000000001E-11</v>
       </c>
       <c r="F7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G7" s="1">
         <v>1.8600000000000001E-14</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I7">
         <v>1.09507819773298</v>
@@ -5117,22 +5166,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1">
         <v>1.4700000000000002E-11</v>
       </c>
       <c r="F8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G8" s="1">
         <v>2.53E-14</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I8">
         <v>1.08326826652518</v>
@@ -5146,22 +5195,22 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
         <v>7.1600000000000001E-10</v>
       </c>
       <c r="F9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G9" s="1">
         <v>1.28E-12</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I9">
         <v>0.91450869776921395</v>
@@ -5175,22 +5224,22 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E10" s="1">
         <v>1.11E-7</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G10" s="1">
         <v>2.5599999999999999E-10</v>
       </c>
       <c r="H10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I10">
         <v>0.69546770212133402</v>
@@ -5204,22 +5253,22 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1">
         <v>2.2999999999999999E-7</v>
       </c>
       <c r="F11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G11" s="1">
         <v>5.5800000000000004E-10</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I11">
         <v>0.66382721639824005</v>
@@ -5233,22 +5282,22 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1">
         <v>2.6400000000000001E-6</v>
       </c>
       <c r="F12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G12" s="1">
         <v>7.9099999999999994E-9</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I12">
         <v>0.55783960731301696</v>
@@ -5262,22 +5311,22 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E13" s="1">
         <v>1.0200000000000001E-5</v>
       </c>
       <c r="F13" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G13" s="1">
         <v>3.4599999999999999E-8</v>
       </c>
       <c r="H13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I13">
         <v>0.499139982823808</v>
@@ -5291,22 +5340,22 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G14" s="1">
         <v>1.13E-6</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14">
         <v>0.35228787452803301</v>
@@ -5320,22 +5369,22 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E15" s="1">
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="F15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G15" s="1">
         <v>1.77E-6</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I15">
         <v>0.33467874862246499</v>
@@ -5349,22 +5398,22 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>1.5E-3</v>
       </c>
       <c r="F16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G16" s="1">
         <v>6.1500000000000004E-6</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I16">
         <v>0.28239087409443098</v>
@@ -5378,22 +5427,22 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E17">
         <v>2.8E-3</v>
       </c>
       <c r="F17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G17" s="1">
         <v>1.19E-5</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I17">
         <v>0.25528419686577802</v>
@@ -5407,22 +5456,22 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E18">
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="F18" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G18" s="1">
         <v>1.5E-5</v>
       </c>
       <c r="H18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I18">
         <v>0.246852108295774</v>
@@ -5436,22 +5485,22 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E19">
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="F19" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G19" s="1">
         <v>2.8200000000000001E-5</v>
       </c>
       <c r="H19" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I19">
         <v>0.22076083105017399</v>
@@ -5465,22 +5514,22 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E20">
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="F20" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G20" s="1">
         <v>3.65E-5</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I20">
         <v>0.21079053973095099</v>
@@ -5494,22 +5543,22 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E21">
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G21" s="1">
         <v>6.3600000000000001E-5</v>
       </c>
       <c r="H21" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I21">
         <v>0.18761483590329101</v>
@@ -5523,22 +5572,22 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22">
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="F22" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G22" s="1">
         <v>6.4300000000000004E-5</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I22">
         <v>0.18761483590329101</v>
@@ -5552,22 +5601,22 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E23">
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="F23" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G23" s="1">
         <v>6.8300000000000007E-5</v>
       </c>
       <c r="H23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I23">
         <v>0.18569851997459</v>
@@ -5581,22 +5630,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E24">
         <v>1.61E-2</v>
       </c>
       <c r="F24" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G24" s="1">
         <v>8.0199999999999998E-5</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I24">
         <v>0.17931741239681501</v>
@@ -5610,22 +5659,22 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E25">
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="F25" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G25" s="1">
         <v>9.0199999999999997E-5</v>
       </c>
       <c r="H25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I25">
         <v>0.17471469690201</v>
@@ -5639,22 +5688,22 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E26">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F26" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G26" s="1">
         <v>1.2999999999999999E-4</v>
       </c>
       <c r="H26" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I26">
         <v>0.16020599913279601</v>
@@ -5668,22 +5717,22 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E27">
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="F27" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G27" s="1">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="H27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I27">
         <v>0.15301779840218299</v>
@@ -5697,22 +5746,22 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E28">
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="F28" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G28" s="1">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="H28" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I28">
         <v>0.152870828894106</v>
@@ -5726,22 +5775,22 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E29">
         <v>3.5400000000000001E-2</v>
       </c>
       <c r="F29" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G29" s="1">
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I29">
         <v>0.145099673797421</v>
@@ -5755,22 +5804,22 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E30">
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="F30" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G30" s="1">
         <v>2.5999999999999998E-4</v>
       </c>
       <c r="H30" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I30">
         <v>0.132422165832591</v>
@@ -5784,28 +5833,30 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E31">
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="F31" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G31" s="1">
         <v>2.5999999999999998E-4</v>
       </c>
       <c r="H31" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I31">
         <v>0.132422165832591</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape"/>
 </worksheet>
 </file>